--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-978856.8989391328</v>
+        <v>-985867.6280551278</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>314.5673232533982</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>121.3867362266507</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>98.21370191614795</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.236264487173594</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,10 +820,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3.668358909407592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>152.5661472283483</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>289.0317074197853</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6928262965552267</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>95.13408206765108</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>31.02477755382468</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>127.7349619690956</v>
+        <v>26.29171373991292</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>360.3615496777745</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>108.605712310821</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.0703308174844</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>70.49358696865464</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>142.4096715682315</v>
       </c>
       <c r="H11" t="n">
-        <v>90.2364170506976</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>72.32821160596549</v>
       </c>
       <c r="T13" t="n">
-        <v>74.20782255498477</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>330.1844939784138</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>32.13423848633101</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.37878893140881</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>61.11364640933159</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879329</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277607</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059243</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006892</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1180.432721796468</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="C2" t="n">
-        <v>787.2572202993986</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="D2" t="n">
-        <v>469.51244933637</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634777</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1549.897808704473</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704473</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172348</v>
+        <v>1952.549472941515</v>
       </c>
       <c r="V2" t="n">
-        <v>1576.923430875867</v>
+        <v>1952.549472941515</v>
       </c>
       <c r="W2" t="n">
-        <v>1576.923430875867</v>
+        <v>1581.550437909803</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.923430875867</v>
+        <v>1192.09783284286</v>
       </c>
       <c r="Y2" t="n">
-        <v>1180.432721796468</v>
+        <v>1192.09783284286</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>667.0501697914127</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>516.3959393515049</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>386.3069719729853</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>249.860481083873</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653876</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1640.125046302501</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1417.585044673568</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1187.467798806855</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>998.1607211568669</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>818.8465042323741</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555.1164106819674</v>
+        <v>655.9144541892626</v>
       </c>
       <c r="C4" t="n">
-        <v>384.9112927479566</v>
+        <v>485.7093362552518</v>
       </c>
       <c r="D4" t="n">
-        <v>384.9112927479566</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="E4" t="n">
-        <v>229.3524806071591</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="F4" t="n">
-        <v>229.3524806071591</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="G4" t="n">
-        <v>229.3524806071591</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865304</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>939.2448562580851</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>939.2448562580851</v>
       </c>
       <c r="W4" t="n">
-        <v>709.2236301045415</v>
+        <v>655.9144541892626</v>
       </c>
       <c r="X4" t="n">
-        <v>555.1164106819674</v>
+        <v>655.9144541892626</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.1164106819674</v>
+        <v>655.9144541892626</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.771001266949</v>
+        <v>1132.058350667612</v>
       </c>
       <c r="C5" t="n">
-        <v>793.5954997698793</v>
+        <v>1132.058350667612</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5954997698793</v>
+        <v>746.6172218842801</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5954997698793</v>
+        <v>746.6172218842801</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>668.6733001978661</v>
+        <v>773.3325661833821</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207959</v>
+        <v>773.3325661833821</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845421</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.78296973775</v>
+        <v>1726.974845685398</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.78296973775</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.083145195775</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="U5" t="n">
-        <v>1918.330415630373</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="V5" t="n">
-        <v>1576.223606333892</v>
+        <v>1528.549059747011</v>
       </c>
       <c r="W5" t="n">
-        <v>1576.223606333892</v>
+        <v>1528.549059747011</v>
       </c>
       <c r="X5" t="n">
-        <v>1186.771001266949</v>
+        <v>1528.549059747011</v>
       </c>
       <c r="Y5" t="n">
-        <v>1186.771001266949</v>
+        <v>1132.058350667612</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021447</v>
+        <v>786.3100318480283</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622369</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>505.1591874622369</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>368.7126965731246</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>244.2808904562564</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>124.2210725281209</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653876</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675987</v>
+        <v>1117.420583213482</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.609752343106</v>
+        <v>938.1063662889896</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>815.9174678261098</v>
+        <v>916.3929826919181</v>
       </c>
       <c r="U7" t="n">
-        <v>815.9174678261098</v>
+        <v>916.3929826919181</v>
       </c>
       <c r="V7" t="n">
-        <v>549.9381226469341</v>
+        <v>650.4136375127423</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.0832354439199</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1338.333452267659</v>
+        <v>433.2909213338399</v>
       </c>
       <c r="C8" t="n">
-        <v>1338.333452267659</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.333452267659</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
         <v>1049.610128415868</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2051.439296595853</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>1709.332487299371</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="W8" t="n">
-        <v>1338.333452267659</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="X8" t="n">
-        <v>1338.333452267659</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1338.333452267659</v>
+        <v>833.7856670452368</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.7105387425078</v>
+        <v>304.7208609366722</v>
       </c>
       <c r="C10" t="n">
-        <v>429.7105387425078</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D10" t="n">
-        <v>274.0774256450226</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E10" t="n">
-        <v>118.5186135042251</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F10" t="n">
-        <v>118.5186135042251</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4999,13 +4999,13 @@
         <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>429.7105387425078</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X10" t="n">
-        <v>429.7105387425078</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.7105387425078</v>
+        <v>489.9288796279735</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1872.083838891169</v>
+        <v>1835.7043909011</v>
       </c>
       <c r="C11" t="n">
-        <v>1550.704612540294</v>
+        <v>1514.325164550225</v>
       </c>
       <c r="D11" t="n">
-        <v>1237.059758903156</v>
+        <v>1200.680310913086</v>
       </c>
       <c r="E11" t="n">
-        <v>906.272509165894</v>
+        <v>869.8930611758244</v>
       </c>
       <c r="F11" t="n">
-        <v>561.1743458420658</v>
+        <v>524.794897851996</v>
       </c>
       <c r="G11" t="n">
-        <v>219.8078654762628</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341891</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2200.782309456372</v>
+        <v>2806.753625320258</v>
       </c>
       <c r="X11" t="n">
-        <v>2200.782309456372</v>
+        <v>2489.097295399508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2200.782309456372</v>
+        <v>2164.402861466303</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>403.8135591038545</v>
+        <v>474.8748941930976</v>
       </c>
       <c r="C13" t="n">
-        <v>305.4047163160376</v>
+        <v>376.4660514052806</v>
       </c>
       <c r="D13" t="n">
-        <v>305.4047163160376</v>
+        <v>292.6292134539892</v>
       </c>
       <c r="E13" t="n">
-        <v>305.4047163160376</v>
+        <v>292.6292134539892</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752044</v>
+        <v>207.099553813156</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,22 +5197,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1371.569127991293</v>
       </c>
       <c r="T13" t="n">
-        <v>1238.650722401835</v>
+        <v>1207.646351305721</v>
       </c>
       <c r="U13" t="n">
-        <v>1025.008205789929</v>
+        <v>994.0038346938154</v>
       </c>
       <c r="V13" t="n">
-        <v>830.8251357569477</v>
+        <v>799.8207646608334</v>
       </c>
       <c r="W13" t="n">
-        <v>830.8251357569477</v>
+        <v>588.2866377382051</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5410886861247</v>
+        <v>588.2866377382051</v>
       </c>
       <c r="Y13" t="n">
-        <v>517.2253026489619</v>
+        <v>588.2866377382051</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1381.437402331605</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1381.437402331605</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1067.792548694467</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E14" t="n">
-        <v>737.005298957205</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="V14" t="n">
-        <v>2651.689396636281</v>
+        <v>2978.78027853915</v>
       </c>
       <c r="W14" t="n">
-        <v>2352.486636750763</v>
+        <v>2679.577518653632</v>
       </c>
       <c r="X14" t="n">
-        <v>2034.830306830013</v>
+        <v>2361.921188732882</v>
       </c>
       <c r="Y14" t="n">
-        <v>1710.135872896808</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.8305097821774</v>
+        <v>385.6496467242597</v>
       </c>
       <c r="C16" t="n">
-        <v>268.8305097821774</v>
+        <v>287.2408039364428</v>
       </c>
       <c r="D16" t="n">
-        <v>268.8305097821774</v>
+        <v>203.4039659851516</v>
       </c>
       <c r="E16" t="n">
-        <v>268.8305097821774</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="F16" t="n">
-        <v>268.8305097821774</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>872.8795642628186</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901632</v>
+        <v>661.3454373401901</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193401</v>
+        <v>499.0613902693672</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821774</v>
+        <v>499.0613902693672</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5753,16 +5753,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5841,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,46 +5914,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655131</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072211</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964837996</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.185821680344</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924314</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411644</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,31 +6008,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>346.0196676966397</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655131</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072212</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214272</v>
@@ -6209,19 +6209,19 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,31 +6230,31 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118091</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6297,28 +6297,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>591.6304904949648</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.402140121646</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.180111332205</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>357.2653989400741</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>985.0370485667553</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,37 +6598,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>725.8995309768991</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1219.219822695428</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394301</v>
+        <v>1765.220722740009</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146213</v>
+        <v>2293.032006377471</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038542</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170064</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>182.662530460489</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>666.2286163588022</v>
+        <v>979.2273252215504</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>979.2273252215504</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1635.005296432109</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.7304500837418</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>225.416092717094</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076225</v>
+        <v>389.5437325908937</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>687.4874315041408</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770957</v>
+        <v>982.329186110333</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -7020,19 +7020,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>568.1699486069232</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343059</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7570,22 +7570,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7731,16 +7731,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445264</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862344</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>664.3207371077262</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>490.7936748278111</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562869</v>
+        <v>462.5560852512497</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>276.021414040412</v>
+        <v>529.8612640735038</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8301,13 +8301,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>533.3182154539913</v>
+        <v>348.2985274535452</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>663.8430986641874</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9489,10 +9489,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
         <v>87.08336481931465</v>
@@ -9717,10 +9717,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>262.1075997502998</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9729,13 +9729,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,13 +9951,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>290.5921503773102</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9966,10 +9966,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10188,13 +10188,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>376.8285690715887</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10203,13 +10203,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M33" t="n">
-        <v>237.5738335035116</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10443,10 +10443,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,10 +10668,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>163.9964000092958</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,13 +10899,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,13 +11136,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11151,10 +11151,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11379,19 +11379,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>400.7288157213065</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>195.5431439939134</v>
       </c>
       <c r="H11" t="n">
-        <v>159.5274904837447</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.38139897857877</v>
       </c>
       <c r="T13" t="n">
-        <v>88.07572636373152</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.46268771217625</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.7701071136279</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>235.4731903224539</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>38.5461226932488</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>34.37955455748537</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26326,28 +26326,28 @@
         <v>111551.3163970803</v>
       </c>
       <c r="G2" t="n">
+        <v>126232.5246653496</v>
+      </c>
+      <c r="H2" t="n">
+        <v>126232.5246653496</v>
+      </c>
+      <c r="I2" t="n">
+        <v>126232.5246653496</v>
+      </c>
+      <c r="J2" t="n">
+        <v>126232.5246653497</v>
+      </c>
+      <c r="K2" t="n">
         <v>126232.5246653498</v>
       </c>
-      <c r="H2" t="n">
-        <v>126232.5246653499</v>
-      </c>
-      <c r="I2" t="n">
-        <v>126232.5246653499</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>126232.5246653498</v>
-      </c>
-      <c r="K2" t="n">
-        <v>126232.5246653497</v>
-      </c>
-      <c r="L2" t="n">
-        <v>126232.5246653499</v>
       </c>
       <c r="M2" t="n">
         <v>126232.5246653497</v>
       </c>
       <c r="N2" t="n">
-        <v>126232.5246653495</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="O2" t="n">
         <v>126232.5246653496</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>47425.32553668199</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.24177539691</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005337</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005337</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373742</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373742</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
-        <v>122593.9044797028</v>
+        <v>122593.9044797027</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792195</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
+        <v>121843.4120153197</v>
+      </c>
+      <c r="O4" t="n">
         <v>121843.4120153196</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>121843.4120153197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289862.8279908303</v>
+        <v>-286714.4774040561</v>
       </c>
       <c r="C6" t="n">
-        <v>-107657.8796989743</v>
+        <v>-112855.8203700011</v>
       </c>
       <c r="D6" t="n">
-        <v>-112521.1619928495</v>
+        <v>-120257.4512162413</v>
       </c>
       <c r="E6" t="n">
-        <v>-127841.7603005422</v>
+        <v>-128051.4918472317</v>
       </c>
       <c r="F6" t="n">
-        <v>-15719.19882649771</v>
+        <v>-15928.93037318717</v>
       </c>
       <c r="G6" t="n">
-        <v>-101205.9822021715</v>
+        <v>-101205.9822021717</v>
       </c>
       <c r="H6" t="n">
-        <v>-53780.65666548946</v>
+        <v>-53780.65666548977</v>
       </c>
       <c r="I6" t="n">
-        <v>-53780.65666548943</v>
+        <v>-53780.65666548977</v>
       </c>
       <c r="J6" t="n">
-        <v>-266822.5742627751</v>
+        <v>-260306.2891082017</v>
       </c>
       <c r="K6" t="n">
-        <v>-60020.42506827252</v>
+        <v>-60020.42506827243</v>
       </c>
       <c r="L6" t="n">
-        <v>-115203.0140028936</v>
+        <v>-119251.851213366</v>
       </c>
       <c r="M6" t="n">
-        <v>-95981.48612511258</v>
+        <v>-97033.18113630079</v>
       </c>
       <c r="N6" t="n">
-        <v>-53780.65666548967</v>
+        <v>-53780.65666548965</v>
       </c>
       <c r="O6" t="n">
-        <v>-81548.35070826096</v>
+        <v>-81548.35070826084</v>
       </c>
       <c r="P6" t="n">
-        <v>-53780.65666548964</v>
+        <v>-53780.65666548973</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>59.28165692085248</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.07030221924614</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551353</v>
+        <v>17.58004954287429</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>59.28165692085248</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>67.0193942421007</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27433,19 +27433,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>131.8084660430967</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>109.7488099719966</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.1777423863149</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>278.9160449311105</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>79.17337176649841</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>123.6937866655367</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.5727701196222</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>54.01360606785762</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>56.3896646815804</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>105.6268993443526</v>
+        <v>207.0701475735353</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>28.88219680432422</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>144.5894899589263</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>45.43273593718624</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>96.07792639289427</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28752,14 +28752,14 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28825,7 +28825,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634527898</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29086,10 +29086,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155839</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155851</v>
       </c>
       <c r="U23" t="n">
         <v>130.3599693155844</v>
@@ -29223,19 +29223,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901181</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,16 +29536,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>86.65052755599527</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>43.49509683159715</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833336</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.7938545503101</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254176</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2979821082774</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,43 +30378,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634530001</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155843</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30642,25 +30642,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,10 +30885,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N46" t="n">
-        <v>128.2979821082787</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>514.5956855099989</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>341.675183490027</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>326.673535606975</v>
+        <v>370.1689632019377</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>122.7732443099203</v>
+        <v>376.6130943430121</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>440.9310934046794</v>
+        <v>255.9114054042333</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>514.1180470664602</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36209,10 +36209,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094867</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>172.5106644169664</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36449,13 +36449,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,19 +36519,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094867</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242062</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101033</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>200.531803520392</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36686,10 +36686,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446882</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242062</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>286.7682222146705</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36923,13 +36923,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>406.1035372633768</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332445</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184965</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M33" t="n">
-        <v>145.1867114541997</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37163,10 +37163,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>159.4555122371201</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345617</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37388,10 +37388,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>313.3380164832362</v>
+        <v>190.6760370094871</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087322</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37792,7 +37792,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37871,10 +37871,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>310.6684688643883</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,10 +38181,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N46" t="n">
-        <v>313.3380164832375</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
